--- a/src/main/java/PageObject/DemoBlazeData.xlsx
+++ b/src/main/java/PageObject/DemoBlazeData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
   <si>
     <t>UserName</t>
   </si>
@@ -1398,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8D2348-9D8A-4855-8AA6-8AACFE8714D9}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1790,6 +1790,190 @@
         <v>92</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
